--- a/Code/Results/Cases/Case_5_231/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_231/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.545988823858465</v>
+        <v>1.363018046572336</v>
       </c>
       <c r="C2">
-        <v>0.368162453266649</v>
+        <v>0.1319761253539582</v>
       </c>
       <c r="D2">
-        <v>0.06549823065690674</v>
+        <v>0.1317583377187006</v>
       </c>
       <c r="E2">
-        <v>0.0412114808545887</v>
+        <v>0.1135247653422233</v>
       </c>
       <c r="F2">
-        <v>0.7724366718443108</v>
+        <v>1.491495209042583</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.35289854777389</v>
+        <v>0.8675160636340493</v>
       </c>
       <c r="J2">
-        <v>0.04364045569460018</v>
+        <v>0.1293826194609364</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3034714255448847</v>
+        <v>0.3492390935779497</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8128882498613237</v>
+        <v>1.337447668177376</v>
       </c>
       <c r="O2">
-        <v>1.965262634214099</v>
+        <v>3.774698043901878</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.218024251852171</v>
+        <v>1.268414032269447</v>
       </c>
       <c r="C3">
-        <v>0.3259583591150488</v>
+        <v>0.1183424876858794</v>
       </c>
       <c r="D3">
-        <v>0.06125234820129322</v>
+        <v>0.1311258363583363</v>
       </c>
       <c r="E3">
-        <v>0.04105573586548239</v>
+        <v>0.114054448640287</v>
       </c>
       <c r="F3">
-        <v>0.7371750299006976</v>
+        <v>1.494010841709766</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.353516140111342</v>
+        <v>0.8749475156127176</v>
       </c>
       <c r="J3">
-        <v>0.04512322545466496</v>
+        <v>0.1304495154349432</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2715067621624883</v>
+        <v>0.3418900136486656</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.830118620035968</v>
+        <v>1.346526100104356</v>
       </c>
       <c r="O3">
-        <v>1.880113616217642</v>
+        <v>3.784179701280891</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.017091688186497</v>
+        <v>1.210577653479788</v>
       </c>
       <c r="C4">
-        <v>0.3000132357956034</v>
+        <v>0.1099183619519692</v>
       </c>
       <c r="D4">
-        <v>0.05868909705316128</v>
+        <v>0.130774175444536</v>
       </c>
       <c r="E4">
-        <v>0.04100530559165083</v>
+        <v>0.1144139746642381</v>
       </c>
       <c r="F4">
-        <v>0.7169485039700305</v>
+        <v>1.496348933200629</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3547206598922834</v>
+        <v>0.8799707412763205</v>
       </c>
       <c r="J4">
-        <v>0.04608941500691621</v>
+        <v>0.1311442677011723</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2520736041552141</v>
+        <v>0.3375047485299802</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8416834151448072</v>
+        <v>1.352589935462191</v>
       </c>
       <c r="O4">
-        <v>1.831849981204698</v>
+        <v>3.792141254159873</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.93529577078246</v>
+        <v>1.187073690941162</v>
       </c>
       <c r="C5">
-        <v>0.2894294713057946</v>
+        <v>0.1064723040771867</v>
       </c>
       <c r="D5">
-        <v>0.05765510699508525</v>
+        <v>0.1306401417731351</v>
       </c>
       <c r="E5">
-        <v>0.04099585469960765</v>
+        <v>0.1145691258371553</v>
       </c>
       <c r="F5">
-        <v>0.7090463057999159</v>
+        <v>1.497501328810429</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3554103708984968</v>
+        <v>0.8821334609038125</v>
       </c>
       <c r="J5">
-        <v>0.04649691528181776</v>
+        <v>0.1314373718625061</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.244199276074653</v>
+        <v>0.3357498559432202</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8466370140206152</v>
+        <v>1.355184275717896</v>
       </c>
       <c r="O5">
-        <v>1.813140439847189</v>
+        <v>3.795923685846731</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.921718106933866</v>
+        <v>1.183174843045549</v>
       </c>
       <c r="C6">
-        <v>0.2876713031476612</v>
+        <v>0.1058992991740837</v>
       </c>
       <c r="D6">
-        <v>0.05748403878128983</v>
+        <v>0.1306184468004332</v>
       </c>
       <c r="E6">
-        <v>0.04099494824710526</v>
+        <v>0.1145954109848084</v>
       </c>
       <c r="F6">
-        <v>0.7077541974188506</v>
+        <v>1.497704741107462</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.355536661507827</v>
+        <v>0.8824995669082654</v>
       </c>
       <c r="J6">
-        <v>0.04656540490698191</v>
+        <v>0.1314866450880405</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.242894352213213</v>
+        <v>0.3354604037076285</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8474739070455257</v>
+        <v>1.355622514239364</v>
       </c>
       <c r="O6">
-        <v>1.810090136243815</v>
+        <v>3.796584250873622</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.015988244219159</v>
+        <v>1.210260406002647</v>
       </c>
       <c r="C7">
-        <v>0.2998705474184078</v>
+        <v>0.1098719402565109</v>
       </c>
       <c r="D7">
-        <v>0.05867511012996829</v>
+        <v>0.1307723302240547</v>
       </c>
       <c r="E7">
-        <v>0.04100513353295554</v>
+        <v>0.1144160320759733</v>
       </c>
       <c r="F7">
-        <v>0.7168405773881616</v>
+        <v>1.496363666520011</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3547291675693174</v>
+        <v>0.8799994399841538</v>
       </c>
       <c r="J7">
-        <v>0.04609485526811685</v>
+        <v>0.1311481801553729</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2519672314711698</v>
+        <v>0.3374809510700487</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8417492547744629</v>
+        <v>1.352624424287917</v>
       </c>
       <c r="O7">
-        <v>1.831593844791655</v>
+        <v>3.792190086920471</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.432800119709839</v>
+        <v>1.330347532172141</v>
       </c>
       <c r="C8">
-        <v>0.3536151939354113</v>
+        <v>0.1272863508020521</v>
       </c>
       <c r="D8">
-        <v>0.06402489739651429</v>
+        <v>0.1315326601373599</v>
       </c>
       <c r="E8">
-        <v>0.04114823560589542</v>
+        <v>0.1137002915651024</v>
       </c>
       <c r="F8">
-        <v>0.759971817876071</v>
+        <v>1.492197954411871</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3529348528471843</v>
+        <v>0.869982879421368</v>
       </c>
       <c r="J8">
-        <v>0.04413998657887941</v>
+        <v>0.1297422573776847</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2924075600181482</v>
+        <v>0.3466788552539128</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8186205216842026</v>
+        <v>1.340476377374117</v>
       </c>
       <c r="O8">
-        <v>1.935037080854443</v>
+        <v>3.777523182387455</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.254878108339653</v>
+        <v>1.56776383176873</v>
       </c>
       <c r="C9">
-        <v>0.4589057127543867</v>
+        <v>0.1610092086410475</v>
       </c>
       <c r="D9">
-        <v>0.07488459330604513</v>
+        <v>0.1333131096197278</v>
       </c>
       <c r="E9">
-        <v>0.04180011356753965</v>
+        <v>0.112568146308357</v>
       </c>
       <c r="F9">
-        <v>0.8567071695100168</v>
+        <v>1.490323190112704</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3563766299088158</v>
+        <v>0.8539940328816726</v>
       </c>
       <c r="J9">
-        <v>0.04076072149886301</v>
+        <v>0.1272995380029407</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.373428298298137</v>
+        <v>0.3657177520956623</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7814114404936916</v>
+        <v>1.320532702456511</v>
       </c>
       <c r="O9">
-        <v>2.172262920431535</v>
+        <v>3.765745028524407</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.863614203485895</v>
+        <v>1.743298454634214</v>
       </c>
       <c r="C10">
-        <v>0.5364296283803185</v>
+        <v>0.1855193228262806</v>
       </c>
       <c r="D10">
-        <v>0.08312094052668328</v>
+        <v>0.1347955671645735</v>
       </c>
       <c r="E10">
-        <v>0.04252394309363972</v>
+        <v>0.1119008765461427</v>
       </c>
       <c r="F10">
-        <v>0.9364520972741133</v>
+        <v>1.492782960876013</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.363753961149321</v>
+        <v>0.8444766532774324</v>
       </c>
       <c r="J10">
-        <v>0.03857190603793192</v>
+        <v>0.1256957449954541</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4342787183145731</v>
+        <v>0.3803091986813172</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7595230807368196</v>
+        <v>1.308236287807958</v>
       </c>
       <c r="O10">
-        <v>2.371192232709689</v>
+        <v>3.76745868650525</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.142031928506071</v>
+        <v>1.823380057555823</v>
       </c>
       <c r="C11">
-        <v>0.5717895371342649</v>
+        <v>0.1966107164498396</v>
       </c>
       <c r="D11">
-        <v>0.08693169964436009</v>
+        <v>0.1355074090039707</v>
       </c>
       <c r="E11">
-        <v>0.04291077915467945</v>
+        <v>0.1116328437664151</v>
       </c>
       <c r="F11">
-        <v>0.9749138164991109</v>
+        <v>1.494735361813724</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3683064423369515</v>
+        <v>0.84063162178699</v>
       </c>
       <c r="J11">
-        <v>0.03764397105381256</v>
+        <v>0.1250074293808883</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4623152801871413</v>
+        <v>0.3870768737384509</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7508634288353164</v>
+        <v>1.303152315004695</v>
       </c>
       <c r="O11">
-        <v>2.467917342709228</v>
+        <v>3.770492679373092</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.247717107159076</v>
+        <v>1.853736419578581</v>
       </c>
       <c r="C12">
-        <v>0.5851978565088132</v>
+        <v>0.2008021969646165</v>
       </c>
       <c r="D12">
-        <v>0.08838462498846411</v>
+        <v>0.1357823120924664</v>
       </c>
       <c r="E12">
-        <v>0.04306592763314754</v>
+        <v>0.1115364369966585</v>
       </c>
       <c r="F12">
-        <v>0.9898193181989541</v>
+        <v>1.495594505083233</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3702152574918571</v>
+        <v>0.8392453196192378</v>
       </c>
       <c r="J12">
-        <v>0.03730268990000063</v>
+        <v>0.1247527042713159</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4729889599493049</v>
+        <v>0.3896581472351954</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7477811404669552</v>
+        <v>1.3013003223043</v>
       </c>
       <c r="O12">
-        <v>2.505519079525641</v>
+        <v>3.771965926825033</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.224943949106716</v>
+        <v>1.847197276270379</v>
       </c>
       <c r="C13">
-        <v>0.5823092409263495</v>
+        <v>0.1998998717568554</v>
       </c>
       <c r="D13">
-        <v>0.08807126120817799</v>
+        <v>0.1357228698048587</v>
       </c>
       <c r="E13">
-        <v>0.04303212200026074</v>
+        <v>0.1115569737166577</v>
       </c>
       <c r="F13">
-        <v>0.9865935465422524</v>
+        <v>1.495404145143013</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3697957231010278</v>
+        <v>0.8395407824559626</v>
       </c>
       <c r="J13">
-        <v>0.03737573534660754</v>
+        <v>0.1248073004843544</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4706875680323179</v>
+        <v>0.3891014038761824</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.748436035353933</v>
+        <v>1.301695928146692</v>
       </c>
       <c r="O13">
-        <v>2.497376250145976</v>
+        <v>3.771634209066178</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.150721380395396</v>
+        <v>1.825876879250302</v>
       </c>
       <c r="C14">
-        <v>0.572892252194805</v>
+        <v>0.1969557253344476</v>
       </c>
       <c r="D14">
-        <v>0.08705103079737597</v>
+        <v>0.1355299185919989</v>
       </c>
       <c r="E14">
-        <v>0.04292336742315683</v>
+        <v>0.1116248103698609</v>
       </c>
       <c r="F14">
-        <v>0.9761331100153399</v>
+        <v>1.49480364305694</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3684596995694918</v>
+        <v>0.8405161720730945</v>
       </c>
       <c r="J14">
-        <v>0.03761568891778211</v>
+        <v>0.1249863542899039</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4631922366596228</v>
+        <v>0.3872888669183681</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7506058384610057</v>
+        <v>1.302998484024982</v>
       </c>
       <c r="O14">
-        <v>2.470990872352104</v>
+        <v>3.770607383188434</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.10529224693056</v>
+        <v>1.812821527499239</v>
       </c>
       <c r="C15">
-        <v>0.5671266056311879</v>
+        <v>0.1951512262594122</v>
       </c>
       <c r="D15">
-        <v>0.0864274167413015</v>
+        <v>0.1354124250698518</v>
       </c>
       <c r="E15">
-        <v>0.04285789198888601</v>
+        <v>0.1116670248859553</v>
       </c>
       <c r="F15">
-        <v>0.9697710061951454</v>
+        <v>1.494451420092915</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3676658206663674</v>
+        <v>0.8411227088156323</v>
       </c>
       <c r="J15">
-        <v>0.03776399487204607</v>
+        <v>0.1250968013065297</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4586087098366107</v>
+        <v>0.3861810396870453</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7519608713818968</v>
+        <v>1.303805866670196</v>
       </c>
       <c r="O15">
-        <v>2.454958325161641</v>
+        <v>3.770020665912483</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.845452381240989</v>
+        <v>1.738069401398093</v>
       </c>
       <c r="C16">
-        <v>0.5341210645310355</v>
+        <v>0.184793282774109</v>
       </c>
       <c r="D16">
-        <v>0.08287324256286155</v>
+        <v>0.1347497968015219</v>
       </c>
       <c r="E16">
-        <v>0.04249985308716298</v>
+        <v>0.1119191064106957</v>
       </c>
       <c r="F16">
-        <v>0.9339847427074375</v>
+        <v>1.492672134729503</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3634815996046612</v>
+        <v>0.8447376891870633</v>
       </c>
       <c r="J16">
-        <v>0.0386339429457685</v>
+        <v>0.1257415575884817</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4324540953624023</v>
+        <v>0.3798695143441222</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7601159877407611</v>
+        <v>1.308578785692561</v>
       </c>
       <c r="O16">
-        <v>2.365002948937189</v>
+        <v>3.767305786278428</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.68645993690933</v>
+        <v>1.692268968716007</v>
       </c>
       <c r="C17">
-        <v>0.5139005614633732</v>
+        <v>0.1784239288654703</v>
       </c>
       <c r="D17">
-        <v>0.08070972655094977</v>
+        <v>0.1343528605155413</v>
       </c>
       <c r="E17">
-        <v>0.04229521714527884</v>
+        <v>0.1120828348685716</v>
       </c>
       <c r="F17">
-        <v>0.9126091203069819</v>
+        <v>1.491794038949266</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3612300261037191</v>
+        <v>0.8470794911240063</v>
       </c>
       <c r="J17">
-        <v>0.0391852361781595</v>
+        <v>0.1261476562661077</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4165040626991328</v>
+        <v>0.3760307501452047</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.765458357671875</v>
+        <v>1.311637297256254</v>
       </c>
       <c r="O17">
-        <v>2.311467973400198</v>
+        <v>3.766217822271756</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.595150445568549</v>
+        <v>1.665947534154327</v>
       </c>
       <c r="C18">
-        <v>0.5022787901845049</v>
+        <v>0.1747549615469666</v>
       </c>
       <c r="D18">
-        <v>0.07947131082092795</v>
+        <v>0.1341280821782149</v>
       </c>
       <c r="E18">
-        <v>0.04218290959897431</v>
+        <v>0.1121803505643051</v>
       </c>
       <c r="F18">
-        <v>0.9005184220930857</v>
+        <v>1.491367430873652</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3600467818233497</v>
+        <v>0.8484720308091909</v>
       </c>
       <c r="J18">
-        <v>0.03950868114592687</v>
+        <v>0.1263851173288657</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4073631099604853</v>
+        <v>0.3738350373447616</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7686526118478696</v>
+        <v>1.313444455934174</v>
       </c>
       <c r="O18">
-        <v>2.281257592120227</v>
+        <v>3.765804243674097</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.564257323882885</v>
+        <v>1.657039343830832</v>
       </c>
       <c r="C19">
-        <v>0.4983451833844015</v>
+        <v>0.173511776403501</v>
       </c>
       <c r="D19">
-        <v>0.07905301220685601</v>
+        <v>0.1340525835116892</v>
       </c>
       <c r="E19">
-        <v>0.04214579922190786</v>
+        <v>0.1122139423993094</v>
       </c>
       <c r="F19">
-        <v>0.8964589742057427</v>
+        <v>1.491236463563297</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3596649806862544</v>
+        <v>0.8489513503085888</v>
       </c>
       <c r="J19">
-        <v>0.0396192749522708</v>
+        <v>0.1264661848561346</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4042736547194323</v>
+        <v>0.3730937150836979</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7697546884968389</v>
+        <v>1.314064573212242</v>
       </c>
       <c r="O19">
-        <v>2.271126465162723</v>
+        <v>3.765700652108251</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.703370322844364</v>
+        <v>1.697142264208026</v>
       </c>
       <c r="C20">
-        <v>0.5160521526052833</v>
+        <v>0.1791025263851509</v>
       </c>
       <c r="D20">
-        <v>0.08093941276315775</v>
+        <v>0.1343947501460576</v>
       </c>
       <c r="E20">
-        <v>0.04231644005971091</v>
+        <v>0.1120650597732578</v>
       </c>
       <c r="F20">
-        <v>0.9148632921440907</v>
+        <v>1.491879394784874</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3614580487552743</v>
+        <v>0.846825482730921</v>
       </c>
       <c r="J20">
-        <v>0.03912588972613662</v>
+        <v>0.1261040244618208</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4181985066090164</v>
+        <v>0.3764381274035742</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7648770093233281</v>
+        <v>1.311306748087304</v>
       </c>
       <c r="O20">
-        <v>2.317106130245435</v>
+        <v>3.766311675950874</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.172515119729326</v>
+        <v>1.832138364955142</v>
       </c>
       <c r="C21">
-        <v>0.575657713475664</v>
+        <v>0.1978207271711767</v>
       </c>
       <c r="D21">
-        <v>0.08735042365669443</v>
+        <v>0.1355864483501037</v>
       </c>
       <c r="E21">
-        <v>0.04295507300692059</v>
+        <v>0.1116047470406034</v>
       </c>
       <c r="F21">
-        <v>0.9791961206916113</v>
+        <v>1.494976773718705</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.368846997522688</v>
+        <v>0.8402277836174505</v>
       </c>
       <c r="J21">
-        <v>0.03754493141632409</v>
+        <v>0.1249336011031961</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4653922066484171</v>
+        <v>0.3878207523001009</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.749963083960516</v>
+        <v>1.302613906010983</v>
       </c>
       <c r="O21">
-        <v>2.478713812879505</v>
+        <v>3.77090018311651</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.48063154333903</v>
+        <v>1.920547090840444</v>
       </c>
       <c r="C22">
-        <v>0.614722523152551</v>
+        <v>0.2100039969787986</v>
       </c>
       <c r="D22">
-        <v>0.09159828657246294</v>
+        <v>0.1363964211121598</v>
       </c>
       <c r="E22">
-        <v>0.04342314190748375</v>
+        <v>0.1113335758302654</v>
       </c>
       <c r="F22">
-        <v>1.02324201611799</v>
+        <v>1.497699425404818</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3747603875935042</v>
+        <v>0.8363222613351198</v>
       </c>
       <c r="J22">
-        <v>0.03657078373819189</v>
+        <v>0.1242031941144361</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.496570313869455</v>
+        <v>0.3953677127063315</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7413691666109514</v>
+        <v>1.297359238563629</v>
       </c>
       <c r="O22">
-        <v>2.590051515081853</v>
+        <v>3.775789611324655</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.316032891311636</v>
+        <v>1.873345751389479</v>
       </c>
       <c r="C23">
-        <v>0.593861222019143</v>
+        <v>0.2035062101180358</v>
       </c>
       <c r="D23">
-        <v>0.08932559060833967</v>
+        <v>0.1359612893701936</v>
       </c>
       <c r="E23">
-        <v>0.04316855350674587</v>
+        <v>0.1114755951941131</v>
       </c>
       <c r="F23">
-        <v>0.9995415316974174</v>
+        <v>1.496182409259319</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3715006117844553</v>
+        <v>0.8383695011217682</v>
       </c>
       <c r="J23">
-        <v>0.03708517129876832</v>
+        <v>0.1245898688988447</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4798973745169377</v>
+        <v>0.391329959269811</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.74584677874752</v>
+        <v>1.30012475096364</v>
       </c>
       <c r="O23">
-        <v>2.530078059058297</v>
+        <v>3.773006993252352</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.695724836921443</v>
+        <v>1.694939016506225</v>
       </c>
       <c r="C24">
-        <v>0.5150794084361507</v>
+        <v>0.1787957546759458</v>
       </c>
       <c r="D24">
-        <v>0.08083555479949922</v>
+        <v>0.13437580117035</v>
       </c>
       <c r="E24">
-        <v>0.04230682857479451</v>
+        <v>0.1120730853458216</v>
       </c>
       <c r="F24">
-        <v>0.9138435649772276</v>
+        <v>1.491840561754856</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3613546142637318</v>
+        <v>0.8469401759981992</v>
       </c>
       <c r="J24">
-        <v>0.0391527000407681</v>
+        <v>0.1261237379733249</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.417432358824513</v>
+        <v>0.3762539171085564</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7651394550226627</v>
+        <v>1.311456037411496</v>
       </c>
       <c r="O24">
-        <v>2.314555357453912</v>
+        <v>3.766268584633735</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.03179350265907</v>
+        <v>1.503337425576433</v>
       </c>
       <c r="C25">
-        <v>0.4304101908096243</v>
+        <v>0.1519325806499694</v>
       </c>
       <c r="D25">
-        <v>0.07190400753630399</v>
+        <v>0.1328006805200914</v>
       </c>
       <c r="E25">
-        <v>0.04158216469043552</v>
+        <v>0.1128454624313573</v>
       </c>
       <c r="F25">
-        <v>0.8291107939051443</v>
+        <v>1.490156521343934</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3546401430407258</v>
+        <v>0.8579280601583221</v>
       </c>
       <c r="J25">
-        <v>0.04162457460162283</v>
+        <v>0.1279267868463849</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.351298650284221</v>
+        <v>0.3604607156110404</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7905573973644664</v>
+        <v>1.325513640109747</v>
       </c>
       <c r="O25">
-        <v>2.104040967152855</v>
+        <v>3.767111731833353</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_231/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_231/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.363018046572336</v>
+        <v>2.545988823858465</v>
       </c>
       <c r="C2">
-        <v>0.1319761253539582</v>
+        <v>0.3681624532669048</v>
       </c>
       <c r="D2">
-        <v>0.1317583377187006</v>
+        <v>0.06549823065689964</v>
       </c>
       <c r="E2">
-        <v>0.1135247653422233</v>
+        <v>0.0412114808545585</v>
       </c>
       <c r="F2">
-        <v>1.491495209042583</v>
+        <v>0.7724366718442965</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8675160636340493</v>
+        <v>0.35289854777389</v>
       </c>
       <c r="J2">
-        <v>0.1293826194609364</v>
+        <v>0.04364045569463215</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3492390935779497</v>
+        <v>0.3034714255449416</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.337447668177376</v>
+        <v>0.8128882498613166</v>
       </c>
       <c r="O2">
-        <v>3.774698043901878</v>
+        <v>1.965262634214042</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.268414032269447</v>
+        <v>2.218024251852228</v>
       </c>
       <c r="C3">
-        <v>0.1183424876858794</v>
+        <v>0.3259583591153614</v>
       </c>
       <c r="D3">
-        <v>0.1311258363583363</v>
+        <v>0.0612523482013998</v>
       </c>
       <c r="E3">
-        <v>0.114054448640287</v>
+        <v>0.04105573586549127</v>
       </c>
       <c r="F3">
-        <v>1.494010841709766</v>
+        <v>0.7371750299006621</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8749475156127176</v>
+        <v>0.3535161401113314</v>
       </c>
       <c r="J3">
-        <v>0.1304495154349432</v>
+        <v>0.04512322545478487</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3418900136486656</v>
+        <v>0.2715067621625309</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.346526100104356</v>
+        <v>0.8301186200359041</v>
       </c>
       <c r="O3">
-        <v>3.784179701280891</v>
+        <v>1.880113616217585</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.210577653479788</v>
+        <v>2.017091688186326</v>
       </c>
       <c r="C4">
-        <v>0.1099183619519692</v>
+        <v>0.3000132357955891</v>
       </c>
       <c r="D4">
-        <v>0.130774175444536</v>
+        <v>0.05868909705333181</v>
       </c>
       <c r="E4">
-        <v>0.1144139746642381</v>
+        <v>0.04100530559166327</v>
       </c>
       <c r="F4">
-        <v>1.496348933200629</v>
+        <v>0.7169485039700518</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8799707412763205</v>
+        <v>0.354720659892287</v>
       </c>
       <c r="J4">
-        <v>0.1311442677011723</v>
+        <v>0.04608941500678565</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3375047485299802</v>
+        <v>0.2520736041552709</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.352589935462191</v>
+        <v>0.8416834151448001</v>
       </c>
       <c r="O4">
-        <v>3.792141254159873</v>
+        <v>1.831849981204755</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.187073690941162</v>
+        <v>1.935295770782261</v>
       </c>
       <c r="C5">
-        <v>0.1064723040771867</v>
+        <v>0.2894294713055672</v>
       </c>
       <c r="D5">
-        <v>0.1306401417731351</v>
+        <v>0.05765510699485077</v>
       </c>
       <c r="E5">
-        <v>0.1145691258371553</v>
+        <v>0.04099585469961031</v>
       </c>
       <c r="F5">
-        <v>1.497501328810429</v>
+        <v>0.7090463057999017</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8821334609038125</v>
+        <v>0.3554103708984861</v>
       </c>
       <c r="J5">
-        <v>0.1314373718625061</v>
+        <v>0.04649691528179645</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3357498559432202</v>
+        <v>0.244199276074724</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.355184275717896</v>
+        <v>0.846637014020601</v>
       </c>
       <c r="O5">
-        <v>3.795923685846731</v>
+        <v>1.81314043984716</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.183174843045549</v>
+        <v>1.921718106934094</v>
       </c>
       <c r="C6">
-        <v>0.1058992991740837</v>
+        <v>0.2876713031473059</v>
       </c>
       <c r="D6">
-        <v>0.1306184468004332</v>
+        <v>0.05748403878128983</v>
       </c>
       <c r="E6">
-        <v>0.1145954109848084</v>
+        <v>0.04099494824711769</v>
       </c>
       <c r="F6">
-        <v>1.497704741107462</v>
+        <v>0.7077541974188719</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8824995669082654</v>
+        <v>0.3555366615078377</v>
       </c>
       <c r="J6">
-        <v>0.1314866450880405</v>
+        <v>0.04656540490701833</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3354604037076285</v>
+        <v>0.2428943522131846</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.355622514239364</v>
+        <v>0.8474739070456039</v>
       </c>
       <c r="O6">
-        <v>3.796584250873622</v>
+        <v>1.810090136243872</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.210260406002647</v>
+        <v>2.015988244219216</v>
       </c>
       <c r="C7">
-        <v>0.1098719402565109</v>
+        <v>0.2998705474187489</v>
       </c>
       <c r="D7">
-        <v>0.1307723302240547</v>
+        <v>0.05867511013001803</v>
       </c>
       <c r="E7">
-        <v>0.1144160320759733</v>
+        <v>0.04100513353294133</v>
       </c>
       <c r="F7">
-        <v>1.496363666520011</v>
+        <v>0.7168405773881403</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8799994399841538</v>
+        <v>0.3547291675693209</v>
       </c>
       <c r="J7">
-        <v>0.1311481801553729</v>
+        <v>0.04609485526810797</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3374809510700487</v>
+        <v>0.2519672314711983</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.352624424287917</v>
+        <v>0.8417492547745198</v>
       </c>
       <c r="O7">
-        <v>3.792190086920471</v>
+        <v>1.831593844791712</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.330347532172141</v>
+        <v>2.432800119709839</v>
       </c>
       <c r="C8">
-        <v>0.1272863508020521</v>
+        <v>0.353615193935326</v>
       </c>
       <c r="D8">
-        <v>0.1315326601373599</v>
+        <v>0.06402489739649297</v>
       </c>
       <c r="E8">
-        <v>0.1137002915651024</v>
+        <v>0.04114823560589365</v>
       </c>
       <c r="F8">
-        <v>1.492197954411871</v>
+        <v>0.7599718178760639</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.869982879421368</v>
+        <v>0.3529348528471878</v>
       </c>
       <c r="J8">
-        <v>0.1297422573776847</v>
+        <v>0.04413998657892471</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3466788552539128</v>
+        <v>0.2924075600181624</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.340476377374117</v>
+        <v>0.8186205216841813</v>
       </c>
       <c r="O8">
-        <v>3.777523182387455</v>
+        <v>1.935037080854414</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.56776383176873</v>
+        <v>3.254878108339767</v>
       </c>
       <c r="C9">
-        <v>0.1610092086410475</v>
+        <v>0.4589057127549268</v>
       </c>
       <c r="D9">
-        <v>0.1333131096197278</v>
+        <v>0.07488459330604513</v>
       </c>
       <c r="E9">
-        <v>0.112568146308357</v>
+        <v>0.04180011356753788</v>
       </c>
       <c r="F9">
-        <v>1.490323190112704</v>
+        <v>0.8567071695100168</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8539940328816726</v>
+        <v>0.3563766299088122</v>
       </c>
       <c r="J9">
-        <v>0.1272995380029407</v>
+        <v>0.04076072149876531</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3657177520956623</v>
+        <v>0.373428298298137</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.320532702456511</v>
+        <v>0.7814114404937484</v>
       </c>
       <c r="O9">
-        <v>3.765745028524407</v>
+        <v>2.172262920431592</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.743298454634214</v>
+        <v>3.863614203485781</v>
       </c>
       <c r="C10">
-        <v>0.1855193228262806</v>
+        <v>0.5364296283802048</v>
       </c>
       <c r="D10">
-        <v>0.1347955671645735</v>
+        <v>0.08312094052655539</v>
       </c>
       <c r="E10">
-        <v>0.1119008765461427</v>
+        <v>0.04252394309362018</v>
       </c>
       <c r="F10">
-        <v>1.492782960876013</v>
+        <v>0.9364520972741133</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8444766532774324</v>
+        <v>0.3637539611493352</v>
       </c>
       <c r="J10">
-        <v>0.1256957449954541</v>
+        <v>0.03857190603795146</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3803091986813172</v>
+        <v>0.4342787183145163</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.308236287807958</v>
+        <v>0.7595230807367983</v>
       </c>
       <c r="O10">
-        <v>3.76745868650525</v>
+        <v>2.371192232709632</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.823380057555823</v>
+        <v>4.142031928505958</v>
       </c>
       <c r="C11">
-        <v>0.1966107164498396</v>
+        <v>0.5717895371341513</v>
       </c>
       <c r="D11">
-        <v>0.1355074090039707</v>
+        <v>0.0869316996442393</v>
       </c>
       <c r="E11">
-        <v>0.1116328437664151</v>
+        <v>0.04291077915469543</v>
       </c>
       <c r="F11">
-        <v>1.494735361813724</v>
+        <v>0.9749138164990825</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.84063162178699</v>
+        <v>0.3683064423369657</v>
       </c>
       <c r="J11">
-        <v>0.1250074293808883</v>
+        <v>0.03764397105371664</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3870768737384509</v>
+        <v>0.4623152801872266</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.303152315004695</v>
+        <v>0.7508634288353235</v>
       </c>
       <c r="O11">
-        <v>3.770492679373092</v>
+        <v>2.467917342709399</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.853736419578581</v>
+        <v>4.247717107159076</v>
       </c>
       <c r="C12">
-        <v>0.2008021969646165</v>
+        <v>0.5851978565089269</v>
       </c>
       <c r="D12">
-        <v>0.1357823120924664</v>
+        <v>0.08838462498832911</v>
       </c>
       <c r="E12">
-        <v>0.1115364369966585</v>
+        <v>0.04306592763314576</v>
       </c>
       <c r="F12">
-        <v>1.495594505083233</v>
+        <v>0.9898193181989541</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8392453196192378</v>
+        <v>0.3702152574918571</v>
       </c>
       <c r="J12">
-        <v>0.1247527042713159</v>
+        <v>0.03730268989990471</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3896581472351954</v>
+        <v>0.4729889599492338</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.3013003223043</v>
+        <v>0.7477811404670049</v>
       </c>
       <c r="O12">
-        <v>3.771965926825033</v>
+        <v>2.505519079525698</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.847197276270379</v>
+        <v>4.22494394910666</v>
       </c>
       <c r="C13">
-        <v>0.1998998717568554</v>
+        <v>0.5823092409264632</v>
       </c>
       <c r="D13">
-        <v>0.1357228698048587</v>
+        <v>0.08807126120810693</v>
       </c>
       <c r="E13">
-        <v>0.1115569737166577</v>
+        <v>0.04303212200026074</v>
       </c>
       <c r="F13">
-        <v>1.495404145143013</v>
+        <v>0.9865935465422666</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8395407824559626</v>
+        <v>0.3697957231010562</v>
       </c>
       <c r="J13">
-        <v>0.1248073004843544</v>
+        <v>0.03737573534648675</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3891014038761824</v>
+        <v>0.4706875680323748</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.301695928146692</v>
+        <v>0.748436035353933</v>
       </c>
       <c r="O13">
-        <v>3.771634209066178</v>
+        <v>2.497376250145948</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.825876879250302</v>
+        <v>4.150721380395453</v>
       </c>
       <c r="C14">
-        <v>0.1969557253344476</v>
+        <v>0.5728922521946913</v>
       </c>
       <c r="D14">
-        <v>0.1355299185919989</v>
+        <v>0.08705103079744703</v>
       </c>
       <c r="E14">
-        <v>0.1116248103698609</v>
+        <v>0.04292336742315506</v>
       </c>
       <c r="F14">
-        <v>1.49480364305694</v>
+        <v>0.9761331100153399</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8405161720730945</v>
+        <v>0.3684596995694918</v>
       </c>
       <c r="J14">
-        <v>0.1249863542899039</v>
+        <v>0.03761568891781408</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3872888669183681</v>
+        <v>0.463192236659637</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.302998484024982</v>
+        <v>0.7506058384610128</v>
       </c>
       <c r="O14">
-        <v>3.770607383188434</v>
+        <v>2.470990872352104</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.812821527499239</v>
+        <v>4.105292246930617</v>
       </c>
       <c r="C15">
-        <v>0.1951512262594122</v>
+        <v>0.5671266056312732</v>
       </c>
       <c r="D15">
-        <v>0.1354124250698518</v>
+        <v>0.0864274167413015</v>
       </c>
       <c r="E15">
-        <v>0.1116670248859553</v>
+        <v>0.04285789198888601</v>
       </c>
       <c r="F15">
-        <v>1.494451420092915</v>
+        <v>0.9697710061951312</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8411227088156323</v>
+        <v>0.3676658206663745</v>
       </c>
       <c r="J15">
-        <v>0.1250968013065297</v>
+        <v>0.03776399487198745</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3861810396870453</v>
+        <v>0.4586087098366534</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.303805866670196</v>
+        <v>0.7519608713819608</v>
       </c>
       <c r="O15">
-        <v>3.770020665912483</v>
+        <v>2.454958325161641</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.738069401398093</v>
+        <v>3.845452381240989</v>
       </c>
       <c r="C16">
-        <v>0.184793282774109</v>
+        <v>0.5341210645306944</v>
       </c>
       <c r="D16">
-        <v>0.1347497968015219</v>
+        <v>0.08287324256285444</v>
       </c>
       <c r="E16">
-        <v>0.1119191064106957</v>
+        <v>0.04249985308712922</v>
       </c>
       <c r="F16">
-        <v>1.492672134729503</v>
+        <v>0.9339847427074375</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8447376891870633</v>
+        <v>0.3634815996046541</v>
       </c>
       <c r="J16">
-        <v>0.1257415575884817</v>
+        <v>0.03863394294576139</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3798695143441222</v>
+        <v>0.4324540953624592</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.308578785692561</v>
+        <v>0.7601159877407397</v>
       </c>
       <c r="O16">
-        <v>3.767305786278428</v>
+        <v>2.365002948937189</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.692268968716007</v>
+        <v>3.686459936909216</v>
       </c>
       <c r="C17">
-        <v>0.1784239288654703</v>
+        <v>0.5139005614634868</v>
       </c>
       <c r="D17">
-        <v>0.1343528605155413</v>
+        <v>0.08070972655087871</v>
       </c>
       <c r="E17">
-        <v>0.1120828348685716</v>
+        <v>0.04229521714529128</v>
       </c>
       <c r="F17">
-        <v>1.491794038949266</v>
+        <v>0.9126091203069677</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8470794911240063</v>
+        <v>0.3612300261037262</v>
       </c>
       <c r="J17">
-        <v>0.1261476562661077</v>
+        <v>0.03918523617807068</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3760307501452047</v>
+        <v>0.4165040626992038</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.311637297256254</v>
+        <v>0.7654583576719247</v>
       </c>
       <c r="O17">
-        <v>3.766217822271756</v>
+        <v>2.311467973400198</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.665947534154327</v>
+        <v>3.595150445568549</v>
       </c>
       <c r="C18">
-        <v>0.1747549615469666</v>
+        <v>0.5022787901846186</v>
       </c>
       <c r="D18">
-        <v>0.1341280821782149</v>
+        <v>0.07947131082082137</v>
       </c>
       <c r="E18">
-        <v>0.1121803505643051</v>
+        <v>0.04218290959901871</v>
       </c>
       <c r="F18">
-        <v>1.491367430873652</v>
+        <v>0.9005184220930857</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8484720308091909</v>
+        <v>0.3600467818233284</v>
       </c>
       <c r="J18">
-        <v>0.1263851173288657</v>
+        <v>0.03950868114580786</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3738350373447616</v>
+        <v>0.4073631099604569</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.313444455934174</v>
+        <v>0.7686526118478483</v>
       </c>
       <c r="O18">
-        <v>3.765804243674097</v>
+        <v>2.28125759212017</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.657039343830832</v>
+        <v>3.564257323882941</v>
       </c>
       <c r="C19">
-        <v>0.173511776403501</v>
+        <v>0.4983451833844867</v>
       </c>
       <c r="D19">
-        <v>0.1340525835116892</v>
+        <v>0.07905301220692706</v>
       </c>
       <c r="E19">
-        <v>0.1122139423993094</v>
+        <v>0.04214579922189543</v>
       </c>
       <c r="F19">
-        <v>1.491236463563297</v>
+        <v>0.8964589742057427</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8489513503085888</v>
+        <v>0.3596649806862615</v>
       </c>
       <c r="J19">
-        <v>0.1264661848561346</v>
+        <v>0.03961927495222106</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3730937150836979</v>
+        <v>0.4042736547194323</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.314064573212242</v>
+        <v>0.7697546884967892</v>
       </c>
       <c r="O19">
-        <v>3.765700652108251</v>
+        <v>2.271126465162723</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.697142264208026</v>
+        <v>3.703370322844421</v>
       </c>
       <c r="C20">
-        <v>0.1791025263851509</v>
+        <v>0.5160521526053401</v>
       </c>
       <c r="D20">
-        <v>0.1343947501460576</v>
+        <v>0.08093941276316485</v>
       </c>
       <c r="E20">
-        <v>0.1120650597732578</v>
+        <v>0.04231644005972335</v>
       </c>
       <c r="F20">
-        <v>1.491879394784874</v>
+        <v>0.9148632921441049</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.846825482730921</v>
+        <v>0.3614580487552956</v>
       </c>
       <c r="J20">
-        <v>0.1261040244618208</v>
+        <v>0.03912588972619346</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3764381274035742</v>
+        <v>0.4181985066090022</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.311306748087304</v>
+        <v>0.7648770093233352</v>
       </c>
       <c r="O20">
-        <v>3.766311675950874</v>
+        <v>2.31710613024535</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.832138364955142</v>
+        <v>4.172515119729439</v>
       </c>
       <c r="C21">
-        <v>0.1978207271711767</v>
+        <v>0.5756577134755503</v>
       </c>
       <c r="D21">
-        <v>0.1355864483501037</v>
+        <v>0.08735042365657364</v>
       </c>
       <c r="E21">
-        <v>0.1116047470406034</v>
+        <v>0.04295507300692059</v>
       </c>
       <c r="F21">
-        <v>1.494976773718705</v>
+        <v>0.9791961206915829</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8402277836174505</v>
+        <v>0.3688469975226738</v>
       </c>
       <c r="J21">
-        <v>0.1249336011031961</v>
+        <v>0.03754493141634896</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3878207523001009</v>
+        <v>0.4653922066484881</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.302613906010983</v>
+        <v>0.7499630839605089</v>
       </c>
       <c r="O21">
-        <v>3.77090018311651</v>
+        <v>2.478713812879562</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.920547090840444</v>
+        <v>4.48063154333903</v>
       </c>
       <c r="C22">
-        <v>0.2100039969787986</v>
+        <v>0.614722523152551</v>
       </c>
       <c r="D22">
-        <v>0.1363964211121598</v>
+        <v>0.09159828657247715</v>
       </c>
       <c r="E22">
-        <v>0.1113335758302654</v>
+        <v>0.04342314190745356</v>
       </c>
       <c r="F22">
-        <v>1.497699425404818</v>
+        <v>1.023242016117976</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8363222613351198</v>
+        <v>0.3747603875935042</v>
       </c>
       <c r="J22">
-        <v>0.1242031941144361</v>
+        <v>0.03657078373818656</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3953677127063315</v>
+        <v>0.496570313869455</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.297359238563629</v>
+        <v>0.7413691666109443</v>
       </c>
       <c r="O22">
-        <v>3.775789611324655</v>
+        <v>2.590051515081853</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.873345751389479</v>
+        <v>4.316032891311579</v>
       </c>
       <c r="C23">
-        <v>0.2035062101180358</v>
+        <v>0.5938612220192283</v>
       </c>
       <c r="D23">
-        <v>0.1359612893701936</v>
+        <v>0.08932559060859546</v>
       </c>
       <c r="E23">
-        <v>0.1114755951941131</v>
+        <v>0.04316855350673166</v>
       </c>
       <c r="F23">
-        <v>1.496182409259319</v>
+        <v>0.9995415316974032</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8383695011217682</v>
+        <v>0.3715006117844695</v>
       </c>
       <c r="J23">
-        <v>0.1245898688988447</v>
+        <v>0.0370851712987541</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.391329959269811</v>
+        <v>0.4798973745169519</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.30012475096364</v>
+        <v>0.7458467787475342</v>
       </c>
       <c r="O23">
-        <v>3.773006993252352</v>
+        <v>2.530078059058241</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.694939016506225</v>
+        <v>3.695724836921556</v>
       </c>
       <c r="C24">
-        <v>0.1787957546759458</v>
+        <v>0.5150794084362929</v>
       </c>
       <c r="D24">
-        <v>0.13437580117035</v>
+        <v>0.08083555479927895</v>
       </c>
       <c r="E24">
-        <v>0.1120730853458216</v>
+        <v>0.04230682857478918</v>
       </c>
       <c r="F24">
-        <v>1.491840561754856</v>
+        <v>0.9138435649772276</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8469401759981992</v>
+        <v>0.3613546142637389</v>
       </c>
       <c r="J24">
-        <v>0.1261237379733249</v>
+        <v>0.0391527000409404</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3762539171085564</v>
+        <v>0.4174323588244988</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.311456037411496</v>
+        <v>0.7651394550226556</v>
       </c>
       <c r="O24">
-        <v>3.766268584633735</v>
+        <v>2.314555357453912</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.503337425576433</v>
+        <v>3.031793502659241</v>
       </c>
       <c r="C25">
-        <v>0.1519325806499694</v>
+        <v>0.4304101908098232</v>
       </c>
       <c r="D25">
-        <v>0.1328006805200914</v>
+        <v>0.07190400753636084</v>
       </c>
       <c r="E25">
-        <v>0.1128454624313573</v>
+        <v>0.04158216469043197</v>
       </c>
       <c r="F25">
-        <v>1.490156521343934</v>
+        <v>0.8291107939051443</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8579280601583221</v>
+        <v>0.3546401430407293</v>
       </c>
       <c r="J25">
-        <v>0.1279267868463849</v>
+        <v>0.04162457460156066</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3604607156110404</v>
+        <v>0.351298650284221</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.325513640109747</v>
+        <v>0.7905573973644024</v>
       </c>
       <c r="O25">
-        <v>3.767111731833353</v>
+        <v>2.104040967152855</v>
       </c>
     </row>
   </sheetData>
